--- a/medicine/Médecine vétérinaire/Hépatopancréatite_nécrosante/Hépatopancréatite_nécrosante.xlsx
+++ b/medicine/Médecine vétérinaire/Hépatopancréatite_nécrosante/Hépatopancréatite_nécrosante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patopancr%C3%A9atite_n%C3%A9crosante</t>
+          <t>Hépatopancréatite_nécrosante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hépatopancréatite nécrosante (HPN) est une maladie épizootique létale, provoquée par une infection bactérienne, qui affecte les crevettes d'élevage.
 Cette maladie touche préférentiellement les espèces de crevettes d'élevage suivantes : crevette à pattes blanches (Penaeus vannamei) et crevette bleue (Penaeus stylirostris), mais a également été signalée chez trois autres espèces américaines, à savoir Penaeus aztecus, Penaeus californiensis et Penaeus setiferus. Les taux de mortalité les plus élevés se produisent chez Penaeus vannamei, qui est l'une des deux principales espèces de crevettes d'élevage. En l'absence de traitement, la maladie entraîne une mortalité pouvant atteindre 90 % en l'espace de 30 jours. Une première épizootie de HPN a été signalée au Texas en 1985 ; la maladie s'est ensuite diffusée dans les élevages de crevettes d'Amérique du Sud.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9patopancr%C3%A9atite_n%C3%A9crosante</t>
+          <t>Hépatopancréatite_nécrosante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Recherches sur l'hépatopancréatite nécrosante</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On a réussi à transmettre expérimentalement la bactérie de l'hépatopancréatite nécrosante à des crevettes saines par des injections intra-hépatopancréatiques de matériel infectieux. Transmettre du matériel infectieux à des crevettes saines est actuellement l'approche standard pour entretenir les microorganismes dans des conditions de laboratoire. Aucune tentative de culture de la bactérie in vitro, ce qui requiert de recueillir du matériel infectieux sur des crevettes infectées, n'a réussi.
  Portail de la biologie   Portail de la carcinologie et des crustacés   Portail de la médecine vétérinaire                   </t>
